--- a/DataGenerator/XLSXS/ExecutionData.xlsx
+++ b/DataGenerator/XLSXS/ExecutionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Sub_project\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C240D0-AF72-4A6D-B4BE-88CFFB4CB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7956A527-6B58-4389-96F5-260AFA7ACD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28350" yWindow="0" windowWidth="14955" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="0" windowWidth="34080" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,18 +168,6 @@
   </si>
   <si>
     <t>DotDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 70% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 40%증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 5% 회복 8회 0.5초마다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59963516-22C6-4EB6-83E6-0E195E748F62}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +612,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -636,13 +624,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -653,7 +641,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -662,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -674,10 +662,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
@@ -700,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -715,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
@@ -761,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J5" s="4">
         <v>30000</v>
@@ -781,13 +769,13 @@
         <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" s="4">
         <v>5000</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>34</v>
@@ -810,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J7" s="4">
         <v>30000</v>
@@ -833,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" s="4">
         <v>30000</v>
@@ -844,7 +832,7 @@
         <v>100301</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
@@ -856,60 +844,12 @@
         <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>100401</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100402</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100403</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
